--- a/reeevr/test/excelunit/reeevr-dist-tests.xlsx
+++ b/reeevr/test/excelunit/reeevr-dist-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mo14776\PycharmProjects\Excel-R-compiler\reeevr\test\excelunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98655A3-8145-4EE6-8CD2-A294A7309B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B40D46-F694-471B-9BC9-50920B866A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{51741016-DE60-49DF-9826-25EB96E04CFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51741016-DE60-49DF-9826-25EB96E04CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="B2:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
